--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5522A845-0431-4674-BB6D-069A887ED486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79220062-C37F-40CC-880B-A5E844E52221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,6 +75,14 @@
   </si>
   <si>
     <t>$vitPerLevel$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$signSpeed$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$signPeriod$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -433,7 +441,7 @@
     <col min="1" max="16384" width="15.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -442,7 +450,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -470,8 +478,14 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -499,9 +513,15 @@
       <c r="I3" s="2">
         <v>10</v>
       </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I2" xr:uid="{62A55786-A69D-4C7B-BA1D-CFF94244FEF5}"/>
+  <autoFilter ref="A2:K2" xr:uid="{74F3101F-A65E-45A2-A60A-4B8B431C2E60}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79220062-C37F-40CC-880B-A5E844E52221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086999E8-15F8-413B-986F-34521C7BAF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$model$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$atk$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Warrior</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$$CharTable$$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -83,6 +75,10 @@
   </si>
   <si>
     <t>$signPeriod$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$modelID$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +429,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -443,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -458,42 +454,42 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>10000</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -524,5 +520,6 @@
   <autoFilter ref="A2:K2" xr:uid="{74F3101F-A65E-45A2-A60A-4B8B431C2E60}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086999E8-15F8-413B-986F-34521C7BAF42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F0CF9-9D2B-4682-8DF4-52C9CAF9588F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>$modelID$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소서리스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,6 +520,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:K2" xr:uid="{74F3101F-A65E-45A2-A60A-4B8B431C2E60}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76F0CF9-9D2B-4682-8DF4-52C9CAF9588F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385BE636-74AB-49C5-B7EB-91B58561BBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CharTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharTable!$A$2:$K$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385BE636-74AB-49C5-B7EB-91B58561BBDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1BDA42-F1EE-490C-9056-13151A9D697A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharTable" sheetId="1" r:id="rId1"/>
+    <sheet name="MobTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharTable!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MobTable!$A$2:$J$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +85,18 @@
   </si>
   <si>
     <t>소서리스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트닌자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$$MobTable$$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트소서리스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -432,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -490,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="2">
         <v>10000</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -525,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
+        <v>20001</v>
+      </c>
+      <c r="C4" s="2">
         <v>10001</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -561,4 +575,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011A9D5C-7698-4373-9C42-871CB46632CC}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>30001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10101</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:J2" xr:uid="{33FBA0E1-0602-4618-8420-B558CB487A47}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1BDA42-F1EE-490C-9056-13151A9D697A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394FC343-AA8B-4E12-ADEB-4778C812B65F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,15 +88,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>테스트닌자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$$MobTable$$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>테스트소서리스</t>
+    <t>슬라임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스_소서리스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +121,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -153,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,6 +170,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +464,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,7 +562,7 @@
         <v>10001</v>
       </c>
       <c r="D4" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -582,112 +599,112 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="1"/>
+    <col min="1" max="16384" width="15.625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4">
         <v>30000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>10100</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>100</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
         <v>10</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1">
-        <v>30001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>10101</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="4">
+        <v>39000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10900</v>
+      </c>
+      <c r="D4" s="4">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>100</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
         <v>10</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>10</v>
       </c>
     </row>

--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394FC343-AA8B-4E12-ADEB-4778C812B65F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3903ADD-B90E-4AB2-AB5A-DEBAADAB58C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>10100</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3903ADD-B90E-4AB2-AB5A-DEBAADAB58C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6CA98C-9C96-4005-8B35-A8EDD28A3291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>보스_소서리스</t>
+    <t>보스_킹슬라임</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +599,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -655,7 +655,7 @@
         <v>10100</v>
       </c>
       <c r="D3" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -687,13 +687,13 @@
         <v>10900</v>
       </c>
       <c r="D4" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>

--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6CA98C-9C96-4005-8B35-A8EDD28A3291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A101B398-7BC1-4E98-ABB3-3679384E1FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharTable" sheetId="1" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,7 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -598,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011A9D5C-7698-4373-9C42-871CB46632CC}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/자작/BeatFighter/Sheets/CharTable.xlsx
+++ b/자작/BeatFighter/Sheets/CharTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdgh9577\Desktop\Unity3D\자작\BeatFighter\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A101B398-7BC1-4E98-ABB3-3679384E1FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0FEADD-43AE-47DE-8590-A2E0B4842F4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -527,7 +527,7 @@
         <v>10000</v>
       </c>
       <c r="D3" s="2">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
@@ -571,7 +571,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
